--- a/app/config/tables/ex_ctp_shelter_delivery/forms/ex_ctp_shelter_delivery/ex_ctp_shelter_delivery.xlsx
+++ b/app/config/tables/ex_ctp_shelter_delivery/forms/ex_ctp_shelter_delivery/ex_ctp_shelter_delivery.xlsx
@@ -79,6 +79,9 @@
     <t>barcode</t>
   </si>
   <si>
+    <t>item_pack_barcode</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -154,13 +157,22 @@
     <t>['COMPLETE', data('authorization_id')]</t>
   </si>
   <si>
+    <t>item_pack_ranges</t>
+  </si>
+  <si>
     <t>{}</t>
   </si>
   <si>
+    <t>get_itempack</t>
+  </si>
+  <si>
     <t>entitlements</t>
   </si>
   <si>
     <t>['COMPLETE', data('entitlement_id')]</t>
+  </si>
+  <si>
+    <t>item_pack_name</t>
   </si>
   <si>
     <t>isSessionVariable</t>
@@ -366,47 +378,8 @@
 })()</t>
   </si>
   <si>
-    <t>ex_ctp_shelter_delivery</t>
-  </si>
-  <si>
-    <t>Shelter Delivery</t>
-  </si>
-  <si>
-    <t>Scan Barcode</t>
-  </si>
-  <si>
-    <t>Please confirm</t>
-  </si>
-  <si>
-    <t>This cash card should not be given to this individual</t>
-  </si>
-  <si>
-    <t>Beneficiary Signature:</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>First Name: {{data.firstName}} &lt;br/&gt; Last Name: {{data.lastName}}</t>
-  </si>
-  <si>
-    <t>Card has been given to Beneficiary</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>item_barcode</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
     <t>(function() {
- var rawCode = data('item_barcode');
+ var rawCode = data('item_pack_barcode');
  if (rawCode === null || rawCode === undefined) {return false;}
  var code = parseInt(rawCode);
  var json = JSON.parse(data('ranges'));
@@ -429,11 +402,38 @@
 })()</t>
   </si>
   <si>
+    <t>ex_ctp_shelter_delivery</t>
+  </si>
+  <si>
+    <t>Shelter Delivery</t>
+  </si>
+  <si>
+    <t>Scan Barcode</t>
+  </si>
+  <si>
+    <t>Deliverable: {{data.item_pack_name}}</t>
+  </si>
+  <si>
+    <t>Please confirm</t>
+  </si>
+  <si>
+    <t>Is this the correct barcode? {{data.item_pack_barcode}}</t>
+  </si>
+  <si>
+    <t>This cash card should not be given to this individual</t>
+  </si>
+  <si>
+    <t>Beneficiary Signature:</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">   (function (entitlementRowId) {
                             return new Promise(function (resolve, reject) {
                                 odkData.arbitraryQuery(
                                   'ex_indvidual_reg_shelter',
-                                  'SELECT reg.first_name, reg.last_name, ent.item_name, ent.authorization_id' +
+                                  'SELECT reg.first_name, reg.last_name, ent.item_pack_name, ent.authorization_id' +
                                   ' FROM entitlements as ent, ex_indvidual_reg_shelter as reg, beneficiary_entities as ben' +
                                   ' WHERE ent._id = ? AND ent.beneficiary_entity_id = ben.beneficiary_entity_id AND' +
                                  ' ben.custom_beneficiary_entity_row_id = reg._id',
@@ -450,7 +450,7 @@
                                       jsonMapSurvey: {
                                           firstName: result.getData(0, 'first_name'),
                                           lastName: result.getData(0, 'last_name'),
-                                          item_name: result.getData(0, 'item_name'),
+                                          item_pack_name: result.getData(0, 'item_pack_name'),
                                           authorization_id: result.getData(0, 'authorization_id')
                                       }
                                   };
@@ -458,16 +458,16 @@
                         });</t>
   </si>
   <si>
-    <t>get_item</t>
-  </si>
-  <si>
-    <t>item_ranges</t>
-  </si>
-  <si>
-    <t>Deliverable: {{data.item_name}}</t>
-  </si>
-  <si>
-    <t>Is this the correct barcode? {{data.item_barcode}}</t>
+    <t>First Name: {{data.firstName}} &lt;br/&gt; Last Name: {{data.lastName}}</t>
+  </si>
+  <si>
+    <t>Card has been given to Beneficiary</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1121,13 +1121,13 @@
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
@@ -1139,12 +1139,12 @@
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -1155,12 +1155,12 @@
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -1171,14 +1171,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -1187,12 +1187,12 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -1212,31 +1212,31 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1307,14 +1307,14 @@
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -1353,14 +1353,14 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1375,14 +1375,14 @@
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1427,89 +1427,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>38</v>
-      </c>
       <c r="I3" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1540,127 +1540,127 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1686,57 +1686,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" s="37">
-        <v>20200331</v>
+        <v>20200107</v>
       </c>
       <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="38" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" s="38"/>
     </row>
@@ -1758,35 +1758,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +1811,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -1819,18 +1819,18 @@
     </row>
     <row r="2" spans="1:2" ht="321" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="378" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1858,84 +1858,84 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="391.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>117</v>
@@ -1959,7 +1959,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
@@ -1967,58 +1967,58 @@
     </row>
     <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2045,27 +2045,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
